--- a/data/Por ordenar/design-indicators_02.xlsx
+++ b/data/Por ordenar/design-indicators_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uddcl-my.sharepoint.com/personal/itoledo_udd_cl/Documents/INVESTIGACION DISENO 2024/PUBLICACIONES/paper_2024_toledo-et-al_03_complex_01/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonsh\OneDrive\Escritorio\Proyectos\Design-Complexity\data\Por ordenar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{BB1D57DF-E3FF-4F1A-9DE8-7B8DAEA3C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D955DDC7-6473-4EEC-B183-0814CD796224}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67FA773-8C54-4369-A9D8-30637EB65D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7995" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -886,9 +886,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>yeat</t>
-  </si>
-  <si>
     <t>Total public investment in design</t>
   </si>
   <si>
@@ -1106,6 +1103,9 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1158,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1175,19 +1175,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7861,26 +7858,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.81640625" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7895,13 +7892,13 @@
         <v>144</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7924,10 +7921,10 @@
         <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7950,10 +7947,10 @@
         <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7976,10 +7973,10 @@
         <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8002,10 +7999,10 @@
         <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8028,10 +8025,10 @@
         <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8054,10 +8051,10 @@
         <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8080,10 +8077,10 @@
         <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8106,10 +8103,10 @@
         <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8132,10 +8129,10 @@
         <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8158,10 +8155,10 @@
         <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8184,10 +8181,10 @@
         <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8210,10 +8207,10 @@
         <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8236,10 +8233,10 @@
         <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8262,10 +8259,10 @@
         <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8288,10 +8285,10 @@
         <v>140</v>
       </c>
       <c r="H16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8314,10 +8311,10 @@
         <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8340,10 +8337,10 @@
         <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8366,10 +8363,10 @@
         <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8392,10 +8389,10 @@
         <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8418,10 +8415,10 @@
         <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8444,10 +8441,10 @@
         <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8470,10 +8467,10 @@
         <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8496,10 +8493,10 @@
         <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8522,10 +8519,10 @@
         <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8551,7 +8548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8577,7 +8574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8603,7 +8600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8629,7 +8626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8681,7 +8678,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8733,7 +8730,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8759,7 +8756,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8811,7 +8808,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8837,7 +8834,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8863,7 +8860,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8889,7 +8886,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8915,7 +8912,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8941,7 +8938,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8967,7 +8964,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8993,7 +8990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9045,7 +9042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9071,7 +9068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9084,7 +9081,7 @@
       <c r="D47" s="1">
         <v>2</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>6.2</v>
       </c>
       <c r="F47" t="s">
@@ -9097,7 +9094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9123,7 +9120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9149,7 +9146,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9175,7 +9172,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9201,7 +9198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9253,7 +9250,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9279,7 +9276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9305,7 +9302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9331,7 +9328,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9357,7 +9354,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9383,7 +9380,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9409,7 +9406,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9435,7 +9432,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9487,7 +9484,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9539,7 +9536,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9565,7 +9562,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9591,7 +9588,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9617,7 +9614,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9643,7 +9640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9669,7 +9666,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9695,7 +9692,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9721,7 +9718,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9747,7 +9744,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9773,7 +9770,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9799,7 +9796,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9825,7 +9822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9877,7 +9874,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9903,7 +9900,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9929,7 +9926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9955,7 +9952,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9981,7 +9978,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10007,7 +10004,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10033,7 +10030,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10059,7 +10056,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10111,7 +10108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10137,7 +10134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10163,7 +10160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10189,7 +10186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10215,7 +10212,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10267,7 +10264,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10293,7 +10290,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10319,7 +10316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10345,7 +10342,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10371,7 +10368,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10397,7 +10394,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10423,7 +10420,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10449,7 +10446,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10475,7 +10472,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10501,7 +10498,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10527,7 +10524,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10553,7 +10550,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10579,7 +10576,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10605,7 +10602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10631,7 +10628,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10657,7 +10654,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10683,7 +10680,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10709,7 +10706,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10735,7 +10732,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10761,7 +10758,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10813,7 +10810,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10839,7 +10836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10865,7 +10862,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10917,7 +10914,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10943,7 +10940,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10969,7 +10966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10995,7 +10992,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11021,7 +11018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11047,7 +11044,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11073,7 +11070,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11099,7 +11096,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11125,7 +11122,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11151,7 +11148,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11177,7 +11174,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11203,7 +11200,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11229,7 +11226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11255,7 +11252,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11281,7 +11278,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11307,7 +11304,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11333,7 +11330,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11359,7 +11356,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11385,7 +11382,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11411,7 +11408,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11437,7 +11434,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11463,7 +11460,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11489,7 +11486,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11515,7 +11512,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11541,7 +11538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11567,7 +11564,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11593,7 +11590,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11619,7 +11616,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11645,7 +11642,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11671,7 +11668,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11697,7 +11694,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11723,7 +11720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11749,7 +11746,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11775,7 +11772,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -11801,7 +11798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11827,7 +11824,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11853,7 +11850,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11879,7 +11876,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11905,7 +11902,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11931,7 +11928,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11983,7 +11980,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12009,7 +12006,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12035,7 +12032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12061,7 +12058,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12087,7 +12084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12113,7 +12110,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -12165,7 +12162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -12191,7 +12188,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -12217,7 +12214,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -12269,7 +12266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12295,7 +12292,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12321,7 +12318,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12347,7 +12344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12373,7 +12370,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12399,7 +12396,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12425,7 +12422,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12451,7 +12448,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12503,7 +12500,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12555,7 +12552,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12581,7 +12578,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12607,7 +12604,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12633,7 +12630,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12659,7 +12656,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12685,7 +12682,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12711,7 +12708,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12737,7 +12734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12763,7 +12760,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12789,7 +12786,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12815,7 +12812,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12841,7 +12838,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12867,7 +12864,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12893,7 +12890,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12919,7 +12916,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12945,7 +12942,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12971,7 +12968,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13023,7 +13020,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13049,7 +13046,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13075,7 +13072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13101,7 +13098,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13127,7 +13124,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13153,7 +13150,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13179,7 +13176,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13205,7 +13202,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13231,7 +13228,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13257,7 +13254,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13283,7 +13280,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13309,7 +13306,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13335,7 +13332,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13361,7 +13358,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13387,7 +13384,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13413,7 +13410,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13439,7 +13436,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13465,7 +13462,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13491,7 +13488,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13517,7 +13514,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13543,7 +13540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13569,7 +13566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13595,7 +13592,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13621,7 +13618,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13647,7 +13644,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13673,7 +13670,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -13699,7 +13696,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13725,7 +13722,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13751,7 +13748,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13777,7 +13774,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13803,7 +13800,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13829,7 +13826,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -13855,7 +13852,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13881,7 +13878,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -13907,7 +13904,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -13933,7 +13930,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -13959,7 +13956,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14011,7 +14008,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14037,7 +14034,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14063,7 +14060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14089,7 +14086,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14115,7 +14112,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14141,7 +14138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14167,7 +14164,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14193,7 +14190,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14219,7 +14216,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14245,7 +14242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14271,7 +14268,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14297,7 +14294,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14323,7 +14320,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14349,7 +14346,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14375,7 +14372,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14401,7 +14398,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14427,7 +14424,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14479,7 +14476,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14505,7 +14502,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14531,7 +14528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14557,7 +14554,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14583,7 +14580,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14609,7 +14606,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -14635,7 +14632,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14661,7 +14658,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14687,7 +14684,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -14713,7 +14710,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14739,7 +14736,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -14765,7 +14762,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -14817,7 +14814,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -14843,7 +14840,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -14884,71 +14881,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCD5EE3-3475-4CEC-9FFE-77AFCCEFBCAC}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -14972,7 +14969,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K2" s="3">
         <v>8</v>
@@ -14996,7 +14993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -15049,7 +15046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -15102,7 +15099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -15110,7 +15107,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
@@ -15134,7 +15131,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L5" s="3">
         <v>12</v>
@@ -15155,12 +15152,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="3">
         <v>11</v>
@@ -15184,7 +15181,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K6" s="3">
         <v>4</v>
@@ -15208,12 +15205,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -15237,7 +15234,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
@@ -15261,7 +15258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -15281,7 +15278,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -15305,7 +15302,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P8" s="3">
         <v>9</v>
@@ -15314,7 +15311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -15367,7 +15364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -15420,7 +15417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -15473,7 +15470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -15526,7 +15523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -15579,762 +15576,762 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="C21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="L21" s="8">
         <v>6000</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="N22" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>3.3079999999999998</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>450</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>944</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="6">
         <v>54</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>28</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>36.396999999999998</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>167</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>767</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>540</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>13.27</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C25" s="8">
+        <v>308</v>
+      </c>
+      <c r="C25" s="6">
         <v>102</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>82</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>179</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="6">
         <v>188</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>219</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>766</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>37</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>185</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>60</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>218</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="6">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C26" s="8">
+        <v>302</v>
+      </c>
+      <c r="C26" s="6">
         <v>2.1779999999999999</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>1.1659999999999999</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>763</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>2.992</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>22</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>31.503</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>27.234999999999999</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>683</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>1.4730000000000001</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>1.635</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>9.1920000000000002</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="6">
         <v>15.451000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="8">
+        <v>308</v>
+      </c>
+      <c r="C27" s="6">
         <v>69</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>217</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>147</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>44</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>77</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>247</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>573</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>151</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>353</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>183</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>155</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" s="8">
+        <v>302</v>
+      </c>
+      <c r="C28" s="6">
         <v>22.878</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>7.694</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="6">
         <v>3.121</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>17.907</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>4.3570000000000002</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>104.44</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>69.358999999999995</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>8.0879999999999992</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>4.0019999999999998</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>11.753</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>32.043999999999997</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="6">
         <v>154.81200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" s="8">
+        <v>308</v>
+      </c>
+      <c r="C29" s="6">
         <v>701</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>1.4159999999999999</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>593</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>259</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>14.683</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>817</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>1.4359999999999999</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>1.7390000000000001</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>17.614999999999998</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>1.2949999999999999</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="6">
         <v>529</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="6">
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C30" s="8">
+        <v>302</v>
+      </c>
+      <c r="C30" s="6">
         <v>12.411</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>2.86</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>921</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>1.7969999999999999</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>82</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>2.3490000000000002</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>2.5</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="6">
         <v>927</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>3.657</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>8.4589999999999996</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>12.45</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="6">
         <v>30.484999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C31" s="8">
+        <v>308</v>
+      </c>
+      <c r="C31" s="6">
         <v>380</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>534</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>176</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>27</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>283</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>18</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>52</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>203</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>889</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>948</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>207</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="N32" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="N33" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="8">
+        <v>302</v>
+      </c>
+      <c r="C34" s="6">
         <v>44</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>2.8460000000000001</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <v>865</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>5.6589999999999998</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>90</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="6">
         <v>11.113</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>8.3840000000000003</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="6">
         <v>1.4830000000000001</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="6">
         <v>5.0490000000000004</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>4.2380000000000004</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="6">
         <v>61.68</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="6">
         <v>141.38999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C35" s="8">
+        <v>308</v>
+      </c>
+      <c r="C35" s="6">
         <v>1.4019999999999999</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>531</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>166</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>84</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>311</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="6">
         <v>87</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>2.319</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="6">
         <v>325</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>1.254</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>475</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="6">
         <v>1.014</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="6">
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
@@ -16351,9 +16348,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -16388,7 +16385,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -16423,7 +16420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -16458,7 +16455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -16493,7 +16490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -16528,7 +16525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -16563,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -16598,7 +16595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -16633,7 +16630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -16668,7 +16665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
@@ -16703,7 +16700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -16738,7 +16735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>136</v>
       </c>
@@ -16773,7 +16770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>180</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -16843,7 +16840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -16878,7 +16875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -16913,7 +16910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -16948,7 +16945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -16983,7 +16980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -17018,7 +17015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -17053,7 +17050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -17088,7 +17085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -17123,7 +17120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -17158,7 +17155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -17193,7 +17190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
@@ -17228,7 +17225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -17263,7 +17260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -17298,7 +17295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -17333,7 +17330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
@@ -17368,7 +17365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -17403,7 +17400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
@@ -17438,7 +17435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -17473,7 +17470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -17508,7 +17505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -17543,7 +17540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -17578,7 +17575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
@@ -17613,7 +17610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -17648,7 +17645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -17683,7 +17680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -17718,7 +17715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
@@ -17753,7 +17750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -17788,7 +17785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>225</v>
       </c>
@@ -17823,7 +17820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
@@ -17858,7 +17855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>112</v>
       </c>
@@ -17893,7 +17890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -17928,7 +17925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
@@ -17963,7 +17960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -17998,7 +17995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -18033,7 +18030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
@@ -18068,7 +18065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>77</v>
       </c>
@@ -18103,7 +18100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>235</v>
       </c>
@@ -18151,9 +18148,9 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>238</v>
       </c>
@@ -18188,7 +18185,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -18223,7 +18220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -18258,7 +18255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -18293,7 +18290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -18328,7 +18325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -18363,7 +18360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -18398,7 +18395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -18433,7 +18430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -18468,7 +18465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -18503,7 +18500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -18538,7 +18535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -18573,7 +18570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>189</v>
       </c>
@@ -18608,7 +18605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
@@ -18643,7 +18640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -18678,7 +18675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18713,7 +18710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -18748,7 +18745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -18783,7 +18780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -18818,7 +18815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>136</v>
       </c>
@@ -18853,7 +18850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -18888,7 +18885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -18923,7 +18920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -18958,7 +18955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -18993,7 +18990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -19028,7 +19025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -19063,7 +19060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -19098,7 +19095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -19133,7 +19130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
@@ -19168,7 +19165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -19203,7 +19200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -19238,7 +19235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -19273,7 +19270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>257</v>
       </c>
@@ -19308,7 +19305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -19343,7 +19340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -19378,7 +19375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -19413,7 +19410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
@@ -19448,7 +19445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
@@ -19483,7 +19480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
@@ -19518,7 +19515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -19553,7 +19550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
@@ -19588,7 +19585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -19623,7 +19620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -19658,7 +19655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
@@ -19693,7 +19690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>235</v>
       </c>
@@ -19728,7 +19725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -19763,7 +19760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -19798,7 +19795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>225</v>
       </c>
@@ -19833,7 +19830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -19868,7 +19865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -19903,7 +19900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
@@ -19951,12 +19948,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="29.42578125" customWidth="1"/>
+    <col min="1" max="5" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>275</v>
       </c>
@@ -19988,7 +19985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -20020,7 +20017,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>7</v>
       </c>
@@ -20052,7 +20049,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -20084,7 +20081,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -20116,7 +20113,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -20148,7 +20145,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -20180,7 +20177,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -20212,7 +20209,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -20244,7 +20241,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -20276,7 +20273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -20308,7 +20305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -20340,7 +20337,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -20372,7 +20369,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>63</v>
       </c>
@@ -20404,7 +20401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -20436,7 +20433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>18</v>
       </c>
@@ -20468,7 +20465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>21</v>
       </c>
@@ -20500,7 +20497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -20532,7 +20529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -20564,7 +20561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>34</v>
       </c>
@@ -20596,7 +20593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>11</v>
       </c>
@@ -20628,7 +20625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -20660,7 +20657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -20692,7 +20689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -20724,7 +20721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>14</v>
       </c>
@@ -20756,7 +20753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -20788,7 +20785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -20820,7 +20817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>35</v>
       </c>
@@ -20852,7 +20849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>39</v>
       </c>
@@ -20884,7 +20881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>16</v>
       </c>
@@ -20916,7 +20913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -20948,7 +20945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -20980,7 +20977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -21012,7 +21009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>46</v>
       </c>
@@ -21044,7 +21041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>37</v>
       </c>
@@ -21076,7 +21073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45</v>
       </c>
@@ -21108,7 +21105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>38</v>
       </c>
@@ -21140,7 +21137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>25</v>
       </c>
@@ -21172,7 +21169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>64</v>
       </c>
@@ -21204,7 +21201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -21236,7 +21233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -21268,7 +21265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -21300,7 +21297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>52</v>
       </c>
@@ -21332,7 +21329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>31</v>
       </c>
@@ -21364,7 +21361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>48</v>
       </c>
@@ -21396,7 +21393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>54</v>
       </c>
@@ -21428,7 +21425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>49</v>
       </c>
@@ -21460,7 +21457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>40</v>
       </c>
@@ -21492,7 +21489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -21524,7 +21521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>33</v>
       </c>
@@ -21556,7 +21553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>32</v>
       </c>
@@ -21588,7 +21585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>43</v>
       </c>
@@ -21620,7 +21617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>26</v>
       </c>
@@ -21652,7 +21649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -21684,7 +21681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -21716,7 +21713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -21748,7 +21745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>65</v>
       </c>
@@ -21780,7 +21777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>66</v>
       </c>
@@ -21812,7 +21809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>68</v>
       </c>
@@ -21844,7 +21841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -21876,7 +21873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>85</v>
       </c>
@@ -21908,7 +21905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44</v>
       </c>
@@ -21940,7 +21937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>69</v>
       </c>
@@ -21972,7 +21969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>67</v>
       </c>
@@ -22004,7 +22001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>74</v>
       </c>
@@ -22036,7 +22033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>93</v>
       </c>
@@ -22068,7 +22065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>55</v>
       </c>
@@ -22100,7 +22097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>60</v>
       </c>
@@ -22132,7 +22129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>86</v>
       </c>
@@ -22164,7 +22161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>70</v>
       </c>
@@ -22196,7 +22193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>71</v>
       </c>
@@ -22228,7 +22225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>57</v>
       </c>
@@ -22260,7 +22257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>58</v>
       </c>
@@ -22292,7 +22289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>75</v>
       </c>
@@ -22324,7 +22321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>59</v>
       </c>
@@ -22356,7 +22353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -22388,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>79</v>
       </c>
@@ -22420,7 +22417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>90</v>
       </c>
@@ -22452,7 +22449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -22484,7 +22481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>61</v>
       </c>
@@ -22516,7 +22513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -22548,7 +22545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>87</v>
       </c>
@@ -22580,7 +22577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>96</v>
       </c>
@@ -22612,7 +22609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>78</v>
       </c>
@@ -22644,7 +22641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>88</v>
       </c>
@@ -22676,7 +22673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>89</v>
       </c>
@@ -22708,7 +22705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>99</v>
       </c>
@@ -22740,7 +22737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>91</v>
       </c>
@@ -22772,7 +22769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>62</v>
       </c>
@@ -22804,7 +22801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>73</v>
       </c>
@@ -22836,7 +22833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>92</v>
       </c>
@@ -22868,7 +22865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>94</v>
       </c>
@@ -22900,7 +22897,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>95</v>
       </c>
@@ -22932,7 +22929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>102</v>
       </c>
@@ -22964,7 +22961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>80</v>
       </c>
@@ -22996,7 +22993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>97</v>
       </c>
@@ -23028,7 +23025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>98</v>
       </c>
@@ -23060,7 +23057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>103</v>
       </c>
@@ -23092,7 +23089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>81</v>
       </c>
@@ -23124,7 +23121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>82</v>
       </c>
@@ -23156,7 +23153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>83</v>
       </c>
@@ -23188,7 +23185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>84</v>
       </c>
@@ -23220,7 +23217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>104</v>
       </c>
@@ -23252,7 +23249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>100</v>
       </c>
@@ -23284,7 +23281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>101</v>
       </c>
@@ -23316,7 +23313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>107</v>
       </c>
@@ -23348,7 +23345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -23380,7 +23377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -23412,7 +23409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -23444,7 +23441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -23476,7 +23473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -23508,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -23540,7 +23537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -23572,7 +23569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -23604,7 +23601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
